--- a/moyusi/Keywords/Web/秒商品-已结束检查.xlsx
+++ b/moyusi/Keywords/Web/秒商品-已结束检查.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -76,26 +76,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>检查点-优惠券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-“优惠券”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>检查点-促销活动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -209,10 +189,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>优惠券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>//span[text()='下载']</t>
   </si>
   <si>
@@ -258,22 +234,6 @@
     <t>向下滑动</t>
   </si>
   <si>
-    <t>检查点-优惠券编辑按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-优惠券下载按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-优惠券停止投放按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-优惠券查看详情按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IF 结束</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -302,21 +262,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>检查点-优惠券详情页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>滑动屏幕</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">优惠券数据 </t>
-  </si>
-  <si>
-    <t>检查点-优惠券详情页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>领取列表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -326,10 +275,6 @@
   </si>
   <si>
     <t>Web操作-返回上个页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">优惠券数据 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -385,14 +330,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当前优惠券已停用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前优惠券已停用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -441,6 +378,51 @@
   </si>
   <si>
     <t>检查点-秒杀</t>
+  </si>
+  <si>
+    <t>店铺活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-店铺活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[text()="秒杀"]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-秒杀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-秒杀编辑按钮</t>
+  </si>
+  <si>
+    <t>检查点-秒杀下载按钮</t>
+  </si>
+  <si>
+    <t>检查点-秒杀停止投放按钮</t>
+  </si>
+  <si>
+    <t>检查点-秒杀查看详情按钮</t>
+  </si>
+  <si>
+    <t>检查点-秒杀详情页</t>
+  </si>
+  <si>
+    <t xml:space="preserve">秒杀数据 </t>
+  </si>
+  <si>
+    <t>当前秒杀已停用</t>
+  </si>
+  <si>
+    <t>当前优惠券已停用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">活动数据 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -522,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -561,6 +543,9 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -841,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -916,13 +901,13 @@
       </c>
       <c r="B4" s="6"/>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -930,10 +915,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -941,13 +926,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -955,193 +940,188 @@
         <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B12" s="12">
         <v>3000</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="11" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:8" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="D19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="B20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="D16" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>55</v>
+      <c r="F20" s="19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1149,55 +1129,55 @@
         <v>9</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>89</v>
+      <c r="D24" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="10" t="s">
         <v>86</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1213,401 +1193,401 @@
       </c>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
         <v>0</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
+      <c r="E29" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B30" s="12">
         <v>3000</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="11" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" t="s">
-        <v>61</v>
-      </c>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="9"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>77</v>
+      <c r="D34" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="12">
-        <v>10000</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>59</v>
+        <v>87</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>87</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D38" s="15"/>
       <c r="E38" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>43</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B39" s="12">
+        <v>10000</v>
+      </c>
+      <c r="D39" s="13"/>
       <c r="E39" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D42" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="E42" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46">
         <v>0</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="s">
+      <c r="E46" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B47" s="12">
         <v>3000</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="11" t="s">
+      <c r="D47" s="13"/>
+      <c r="E47" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="14"/>
-    </row>
-    <row r="45" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="14"/>
+    </row>
+    <row r="54" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="D54" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="14"/>
+    </row>
+    <row r="55" spans="1:6" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="B55" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="16">
+        <v>0</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="14"/>
-    </row>
-    <row r="51" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="D51" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" s="14"/>
-    </row>
-    <row r="52" spans="1:6" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="16">
-        <v>0</v>
-      </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>55</v>
+      <c r="F55" s="19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1615,55 +1595,55 @@
         <v>9</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="14"/>
-    </row>
-    <row r="58" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="9">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>89</v>
+      <c r="D59" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F59" s="10" t="s">
         <v>86</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1679,227 +1659,269 @@
       </c>
       <c r="F60" s="14"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="9">
+        <v>0</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B61" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="11" t="s">
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B63" s="12">
         <v>3000</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="11" t="s">
+      <c r="D63" s="13"/>
+      <c r="E63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" t="s">
-        <v>70</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>72</v>
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" t="s">
-        <v>61</v>
-      </c>
-      <c r="E65" t="s">
-        <v>61</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="14"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>60</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" t="s">
-        <v>61</v>
-      </c>
-      <c r="E67" t="s">
-        <v>61</v>
-      </c>
-      <c r="F67" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E68" t="s">
-        <v>83</v>
-      </c>
-      <c r="F68" s="9"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="15" t="s">
-        <v>77</v>
+      <c r="D69" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>77</v>
+        <v>87</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F70" s="15"/>
-    </row>
-    <row r="71" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="12">
-        <v>10000</v>
-      </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="B70" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" t="s">
+        <v>69</v>
+      </c>
+      <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" t="s">
-        <v>58</v>
+        <v>9</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>59</v>
+        <v>87</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>87</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D73" s="15"/>
       <c r="E73" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="F73" s="15"/>
+    </row>
+    <row r="74" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>43</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B74" s="12">
+        <v>10000</v>
+      </c>
+      <c r="D74" s="13"/>
       <c r="E74" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F74" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A77" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A79" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="14"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="D81" t="s">
         <v>33</v>
       </c>
-      <c r="E75" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="14"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="6"/>
-      <c r="D78" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F78" t="s">
-        <v>38</v>
+      <c r="E81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/moyusi/Keywords/Web/秒商品-已结束检查.xlsx
+++ b/moyusi/Keywords/Web/秒商品-已结束检查.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="93">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -178,10 +178,6 @@
   </si>
   <si>
     <t>//*[@class="title"]/span</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>else_if_id不包含</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -422,6 +418,14 @@
   </si>
   <si>
     <t xml:space="preserve">活动数据 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>else_ifid不包含</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>else_ifid不包含</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -828,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -915,10 +919,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -926,13 +930,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -940,13 +944,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -967,10 +971,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1032,7 +1036,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>21</v>
@@ -1074,10 +1078,10 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1121,7 +1125,7 @@
         <v>32</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1129,13 +1133,13 @@
         <v>9</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1143,13 +1147,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1157,13 +1161,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1171,13 +1175,13 @@
         <v>9</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1213,13 +1217,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1240,13 +1244,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1267,13 +1271,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1281,24 +1285,24 @@
         <v>9</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1306,36 +1310,36 @@
         <v>9</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" s="9"/>
     </row>
@@ -1344,22 +1348,22 @@
         <v>9</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="15"/>
     </row>
@@ -1381,13 +1385,13 @@
         <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1395,24 +1399,24 @@
         <v>9</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F42" s="9"/>
     </row>
@@ -1427,7 +1431,7 @@
         <v>29</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1435,7 +1439,7 @@
         <v>39</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F44" s="21"/>
     </row>
@@ -1540,10 +1544,10 @@
         <v>30</v>
       </c>
       <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1587,7 +1591,7 @@
         <v>32</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1595,13 +1599,13 @@
         <v>9</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1609,13 +1613,13 @@
         <v>9</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1623,13 +1627,13 @@
         <v>9</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1637,13 +1641,13 @@
         <v>9</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1679,13 +1683,13 @@
         <v>9</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1706,10 +1710,10 @@
         <v>30</v>
       </c>
       <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1730,10 +1734,10 @@
         <v>30</v>
       </c>
       <c r="B66" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1741,24 +1745,24 @@
         <v>9</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -1766,36 +1770,36 @@
         <v>9</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F70" s="9"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F71" s="9"/>
     </row>
@@ -1804,22 +1808,22 @@
         <v>9</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F73" s="15"/>
     </row>
@@ -1841,10 +1845,10 @@
         <v>30</v>
       </c>
       <c r="B75" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -1852,24 +1856,24 @@
         <v>9</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A77" s="11" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F77" s="9"/>
     </row>
@@ -1884,7 +1888,7 @@
         <v>29</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1892,7 +1896,7 @@
         <v>39</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F79" s="21"/>
     </row>

--- a/moyusi/Keywords/Web/秒商品-已结束检查.xlsx
+++ b/moyusi/Keywords/Web/秒商品-已结束检查.xlsx
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
